--- a/data/ALLQ2024.xlsx
+++ b/data/ALLQ2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE0C488-4B6C-CC4F-9534-FEC8FD9C167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A28CB9-C0AA-314A-8407-7560C6C15E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="500" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="560" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria for qualitative assess" sheetId="1" r:id="rId1"/>
@@ -228,14 +228,37 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABbjCR8sY
-Margarita Sanz    (2025-01-12 13:59:19)
-paper publication: 2022; online publication: October 2024</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABbjCR8sY
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">Margarita Sanz    (2025-01-12 13:59:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t>paper publication: 2022; online publication: October 2024</t>
         </r>
       </text>
     </comment>
@@ -244,14 +267,37 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABbjCR8sc
-Margarita Sanz    (2025-01-12 13:59:19)
-paper publication: 2022; online publication: October 2024</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABbjCR8sc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">Margarita Sanz    (2025-01-12 13:59:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t>paper publication: 2022; online publication: October 2024</t>
         </r>
       </text>
     </comment>
@@ -260,14 +306,37 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABbjCR8sQ
-Margarita Sanz    (2025-01-12 13:59:19)
-paper publication: 2022; online publication: October 2024</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABbjCR8sQ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t xml:space="preserve">Margarita Sanz    (2025-01-12 13:59:19)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+          </rPr>
+          <t>paper publication: 2022; online publication: October 2024</t>
         </r>
       </text>
     </comment>
@@ -905,9 +974,6 @@
     <t>posted by 1 X user</t>
   </si>
   <si>
-    <t>31.06.2024</t>
-  </si>
-  <si>
     <t>Conditions of women holding management positions in Poland</t>
   </si>
   <si>
@@ -921,9 +987,6 @@
   </si>
   <si>
     <t>Economic and Regional Studies / Studia Ekonomiczne i Regionalne</t>
-  </si>
-  <si>
-    <t>31.06.2025</t>
   </si>
   <si>
     <t>https://sciendo.com/article/10.2478/ers-2024-0016</t>
@@ -1486,6 +1549,12 @@
   </si>
   <si>
     <t>COLOUR LEGEND</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>30.06.2025</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2247,7 @@
   <dimension ref="A1:Q978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2246,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,22 +3420,22 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="C23" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>33</v>
@@ -3403,22 +3472,22 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D24" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="F24" s="59" t="s">
         <v>213</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>214</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>81</v>
@@ -3455,25 +3524,25 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="D25" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="G25" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>23</v>
@@ -3493,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P25" s="3">
         <f>K27*0.2 + L27*0.4 + M27*0.1 + N27*0.1 + 1*0.2</f>
@@ -3505,25 +3574,25 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>207</v>
@@ -3547,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P26" s="3">
         <f>K28*0.2 + L28*0.4 + M28*0.1 + N28*0.1 + 2*0.2</f>
@@ -3559,25 +3628,25 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="G27" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>23</v>
@@ -3613,25 +3682,25 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="D28" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="E28" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="F28" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" s="47" t="s">
+      <c r="G28" s="47" t="s">
         <v>237</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>239</v>
       </c>
       <c r="H28" s="47" t="s">
         <v>23</v>
@@ -3667,25 +3736,25 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>81</v>
@@ -3721,28 +3790,28 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>252</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="I30" s="3">
         <v>2020</v>
@@ -3773,25 +3842,25 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="G31" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>23</v>
@@ -3813,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P31" s="3">
         <f>K33*0.2 + L33*0.4 + M33*0.1 + N33*0.1 + 3*0.2</f>
@@ -3825,25 +3894,25 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="F32" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>23</v>
@@ -3877,28 +3946,28 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>271</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="15" t="s">
@@ -3924,25 +3993,25 @@
         <v>45565</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>278</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="15" t="s">
@@ -3969,25 +4038,25 @@
         <v>45565</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>283</v>
-      </c>
       <c r="G35" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="15" t="s">
@@ -4010,25 +4079,25 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>147</v>
@@ -4064,28 +4133,28 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="H37" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="I37" s="4">
         <v>2017</v>
@@ -4116,25 +4185,25 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="D38" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="E38" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="F38" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="G38" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>305</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>148</v>
@@ -4158,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P38" s="3">
         <f t="shared" ref="P38:P45" si="4">K38*0.2 + L38*0.4 + M38*0.1 + N38*0.1 + 17* 0.2</f>
@@ -4170,25 +4239,25 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="D39" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="E39" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="F39" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E39" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G39" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>207</v>
@@ -4212,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P39" s="44">
         <f t="shared" si="4"/>
@@ -4224,25 +4293,25 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="D40" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="E40" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="F40" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E40" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G40" s="37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>148</v>
@@ -4266,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P40" s="44">
         <f t="shared" si="4"/>
@@ -4278,25 +4347,25 @@
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="D41" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="E41" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="F41" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G41" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>148</v>
@@ -4320,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P41" s="44">
         <f t="shared" si="4"/>
@@ -4332,28 +4401,28 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="D42" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="E42" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="F42" s="53" t="s">
         <v>302</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>304</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>33</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I42" s="38" t="s">
         <v>82</v>
@@ -4374,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P42" s="44">
         <f t="shared" si="4"/>
@@ -4386,25 +4455,25 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="D43" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="E43" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="F43" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E43" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G43" s="37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>81</v>
@@ -4428,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P43" s="44">
         <f t="shared" si="4"/>
@@ -4440,25 +4509,25 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="D44" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="E44" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="F44" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G44" s="37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>207</v>
@@ -4482,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P44" s="44">
         <f t="shared" si="4"/>
@@ -4494,25 +4563,25 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="D45" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="E45" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="F45" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="G45" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>23</v>
@@ -4536,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P45" s="44">
         <f t="shared" si="4"/>
@@ -4548,25 +4617,25 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="D46" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>23</v>
@@ -4600,28 +4669,28 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>324</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="18" t="s">
@@ -4646,28 +4715,28 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="D48" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="F48" s="16" t="s">
+      <c r="H48" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="I48" s="4">
         <v>2018</v>
@@ -4692,25 +4761,25 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="E49" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="G49" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>337</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>23</v>
@@ -4732,7 +4801,7 @@
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P49" s="3">
         <f>K49*0.2 + L49*0.4 + M49*0.1 + N49*0.1 + 5 *0.2</f>
@@ -4744,28 +4813,28 @@
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="F50" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>345</v>
       </c>
       <c r="I50" s="4">
         <v>2017</v>
@@ -4784,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P50" s="3">
         <f t="shared" ref="P50:P51" si="6">K50*0.2 + L50*0.4 + M50*0.1 + N50*0.1 + 11*0.2</f>
@@ -4796,28 +4865,28 @@
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="D51" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="E51" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="D51" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="F51" s="41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I51" s="42">
         <v>2023</v>
@@ -4836,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="58" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P51" s="44">
         <f t="shared" si="6"/>
@@ -4848,28 +4917,28 @@
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>354</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="18" t="s">
@@ -4892,28 +4961,28 @@
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="F53" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>360</v>
-      </c>
       <c r="G53" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="18" t="s">
@@ -4931,30 +5000,30 @@
         <v>0</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>366</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>66</v>
@@ -4990,25 +5059,25 @@
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="E55" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="F55" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>373</v>
-      </c>
       <c r="G55" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>23</v>
@@ -5042,28 +5111,28 @@
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="F56" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>378</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="18" t="s">
@@ -5074,7 +5143,7 @@
       <c r="M56" s="62"/>
       <c r="N56" s="63"/>
       <c r="O56" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P56" s="3">
         <f>K56*0.2 + L56*0.4 + M56*0.1 + N56*0.1 + 22*0.2</f>
@@ -5124,7 +5193,7 @@
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B59" s="76"/>
       <c r="C59" s="16"/>
@@ -5146,7 +5215,7 @@
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="70"/>
       <c r="B60" s="71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -5167,7 +5236,7 @@
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="72"/>
       <c r="B61" s="71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -5188,7 +5257,7 @@
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="73"/>
       <c r="B62" s="74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>

--- a/data/ALLQ2024.xlsx
+++ b/data/ALLQ2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A28CB9-C0AA-314A-8407-7560C6C15E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFD1B6-BA8B-E447-83AB-D86073AA2BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="560" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="1580" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria for qualitative assess" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="388">
   <si>
     <t>date of publication</t>
   </si>
@@ -1552,9 +1552,6 @@
   </si>
   <si>
     <t>30.06.2024</t>
-  </si>
-  <si>
-    <t>30.06.2025</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2244,7 @@
   <dimension ref="A1:Q978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>209</v>

--- a/data/ALLQ2024.xlsx
+++ b/data/ALLQ2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFD1B6-BA8B-E447-83AB-D86073AA2BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFD6148-D658-7B4E-9571-B3E79A874E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="1580" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="1760" windowWidth="16700" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria for qualitative assess" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="386">
   <si>
     <t>date of publication</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>name of the author/organisation citing EIGE</t>
-  </si>
-  <si>
-    <t>name of the institution citing EIGE</t>
   </si>
   <si>
     <t>name of the journal citing EIGE</t>
@@ -1236,9 +1233,6 @@
     <t>Cyber ViolenceAgainst Women and Girls</t>
   </si>
   <si>
-    <t>web section: GBV</t>
-  </si>
-  <si>
     <t>31.10.2024</t>
   </si>
   <si>
@@ -1377,16 +1371,10 @@
     <t>Economic Benefits of Gender Equality in the EU</t>
   </si>
   <si>
-    <t>web section: GM</t>
-  </si>
-  <si>
     <t>mentioned by 4 X users, 7 Bluesky users</t>
   </si>
   <si>
     <t>Gender Segregation in Education, Training and the Labour Market</t>
-  </si>
-  <si>
-    <t>web section: BPfA</t>
   </si>
   <si>
     <t>04.12.2024</t>
@@ -1552,6 +1540,12 @@
   </si>
   <si>
     <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>web section - GM</t>
+  </si>
+  <si>
+    <t>name of the institution</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2238,7 @@
   <dimension ref="A1:Q978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2276,78 +2270,78 @@
         <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="P1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>2014</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="3">
         <v>3</v>
@@ -2364,42 +2358,42 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="3">
         <v>2020</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
@@ -2418,42 +2412,42 @@
         <v>1.35</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>2019</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
@@ -2472,42 +2466,42 @@
         <v>0.75</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <v>2023</v>
       </c>
       <c r="J5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>
@@ -2524,39 +2518,39 @@
         <v>0.9</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="I6" s="3">
         <v>2020</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
@@ -2576,39 +2570,39 @@
         <v>1.4</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="3">
         <v>2021</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
@@ -2628,39 +2622,39 @@
         <v>0.75</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3">
         <v>2012</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="3">
@@ -2680,39 +2674,39 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="H9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3">
         <v>2021</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
@@ -2732,39 +2726,39 @@
         <v>0.9</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="G10" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="I10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="38" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="35">
@@ -2784,42 +2778,42 @@
         <v>1.4999999999999998</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="H11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3">
         <v>2018</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -2838,42 +2832,42 @@
         <v>3.1</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="H12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3">
         <v>2013</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -2892,39 +2886,39 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="4">
         <v>2019</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="3">
@@ -2937,46 +2931,46 @@
         <v>1</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P13" s="3">
         <f>K13*0.2 + L13*0.4 + M13*0.1 + N13*0.1 + 1*0.2</f>
         <v>0.90000000000000013</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>168</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="4">
         <v>2023</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
@@ -2989,46 +2983,46 @@
         <v>1</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P14" s="3">
         <f>K14*0.2 + L14*0.4 + M14*0.1 + N14*0.1 + 2*0.2</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="C15" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="E15" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="F15" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>167</v>
-      </c>
       <c r="G15" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="40">
@@ -3041,46 +3035,46 @@
         <v>1</v>
       </c>
       <c r="O15" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P15" s="40">
         <f t="shared" ref="P14:P16" si="0">K15*0.2 + L15*0.4 + M15*0.1 + N15*0.1 + 2*0.2</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="Q15" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="C16" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>167</v>
-      </c>
       <c r="G16" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="42">
         <v>2022</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="40">
@@ -3093,46 +3087,46 @@
         <v>1</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P16" s="40">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="Q16" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="D17" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="4">
         <v>2022</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="3">
@@ -3152,39 +3146,39 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="H18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3">
         <v>2023</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="3">
@@ -3197,46 +3191,46 @@
         <v>1</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P18" s="49">
         <f>K18*0.2 + L18*0.4 + M18*0.1 + N18*0.1 + 4*0.4</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>191</v>
-      </c>
       <c r="H19" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I19" s="4">
         <v>2022</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="3">
@@ -3256,39 +3250,39 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="C20" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="D20" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="E20" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="F20" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="41" t="s">
-        <v>190</v>
-      </c>
       <c r="G20" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="42" t="s">
-        <v>82</v>
-      </c>
       <c r="J20" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="40">
@@ -3308,39 +3302,39 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>199</v>
-      </c>
       <c r="H21" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="4">
         <v>2019</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="3">
@@ -3360,39 +3354,39 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="I22" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="19">
@@ -3405,46 +3399,46 @@
         <v>1</v>
       </c>
       <c r="O22" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P22" s="49">
         <f>K21*0.2 + L21*0.4 + M21*0.1 + N21*0.1 + 1*0.2</f>
         <v>1</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>213</v>
-      </c>
       <c r="G23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I23" s="4">
         <v>2023</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="3">
@@ -3464,39 +3458,39 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="F24" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>213</v>
-      </c>
       <c r="G24" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="42">
         <v>2020</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="40">
@@ -3516,33 +3510,33 @@
         <v>2</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="G25" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="3">
         <v>2021</v>
@@ -3559,49 +3553,49 @@
         <v>1</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="3">
         <f>K27*0.2 + L27*0.4 + M27*0.1 + N27*0.1 + 1*0.2</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>228</v>
-      </c>
       <c r="H26" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -3613,49 +3607,49 @@
         <v>1</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P26" s="3">
         <f>K28*0.2 + L28*0.4 + M28*0.1 + N28*0.1 + 2*0.2</f>
         <v>1.4000000000000004</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="G27" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>236</v>
-      </c>
       <c r="H27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="3">
         <v>2023</v>
       </c>
       <c r="J27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="L27" s="3">
         <v>1</v>
@@ -3674,42 +3668,42 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="C28" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="D28" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="E28" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="F28" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>235</v>
-      </c>
       <c r="G28" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="46">
         <v>2022</v>
       </c>
       <c r="J28" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="48" t="s">
         <v>24</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>25</v>
       </c>
       <c r="L28" s="46">
         <v>1</v>
@@ -3728,39 +3722,39 @@
         <v>0.8</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>244</v>
-      </c>
       <c r="H29" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="3">
         <v>2022</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K29" s="4">
         <v>2</v>
@@ -3782,39 +3776,39 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="H30" s="16" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="I30" s="3">
         <v>2020</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="3">
@@ -3834,39 +3828,39 @@
         <v>0.8</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="G31" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>259</v>
-      </c>
       <c r="H31" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" s="3">
         <v>2019</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="3">
@@ -3879,46 +3873,46 @@
         <v>1</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P31" s="3">
         <f>K33*0.2 + L33*0.4 + M33*0.1 + N33*0.1 + 3*0.2</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>265</v>
-      </c>
       <c r="H32" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="3">
         <v>2019</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="3">
@@ -3938,37 +3932,37 @@
         <v>0.4</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="G33" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="H33" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="60"/>
@@ -3982,7 +3976,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3990,32 +3984,32 @@
         <v>45565</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>276</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
@@ -4027,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4035,32 +4029,32 @@
         <v>45565</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>281</v>
-      </c>
       <c r="G35" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
@@ -4071,42 +4065,42 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>288</v>
-      </c>
       <c r="H36" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" s="4">
         <v>2023</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L36" s="4">
         <v>1</v>
@@ -4125,40 +4119,40 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>295</v>
-      </c>
       <c r="H37" s="16" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="I37" s="4">
         <v>2017</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L37" s="4">
         <v>1</v>
@@ -4177,39 +4171,39 @@
         <v>1.3</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="D38" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="E38" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="F38" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="G38" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>303</v>
-      </c>
       <c r="H38" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38" s="4">
         <v>2</v>
@@ -4224,46 +4218,46 @@
         <v>1</v>
       </c>
       <c r="O38" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P38" s="3">
         <f t="shared" ref="P38:P45" si="4">K38*0.2 + L38*0.4 + M38*0.1 + N38*0.1 + 17* 0.2</f>
         <v>6.5000000000000009</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="D39" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="E39" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="F39" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E39" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G39" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" s="38">
         <v>2</v>
@@ -4278,46 +4272,46 @@
         <v>1</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P39" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q39" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="D40" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="E40" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="F40" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E40" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G40" s="37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40" s="38">
         <v>2</v>
@@ -4332,46 +4326,46 @@
         <v>1</v>
       </c>
       <c r="O40" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P40" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q40" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="D41" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="E41" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="F41" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G41" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" s="38">
         <v>2</v>
@@ -4386,46 +4380,46 @@
         <v>1</v>
       </c>
       <c r="O41" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P41" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q41" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="D42" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="E42" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="F42" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" s="38">
         <v>2</v>
@@ -4440,46 +4434,46 @@
         <v>1</v>
       </c>
       <c r="O42" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P42" s="44">
         <f t="shared" si="4"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="Q42" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="D43" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="E43" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="F43" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E43" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G43" s="37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="38" t="s">
-        <v>82</v>
-      </c>
       <c r="J43" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43" s="38">
         <v>2</v>
@@ -4494,46 +4488,46 @@
         <v>1</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P43" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q43" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="D44" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="E44" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="F44" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E44" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G44" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44" s="38">
         <v>2</v>
@@ -4548,46 +4542,46 @@
         <v>1</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P44" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q44" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="D45" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="E45" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="F45" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="E45" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="G45" s="37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45" s="38">
         <v>2</v>
@@ -4602,46 +4596,46 @@
         <v>1</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P45" s="44">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="Q45" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="D46" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>316</v>
-      </c>
       <c r="H46" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="4">
         <v>2020</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="4">
@@ -4654,47 +4648,47 @@
         <v>1</v>
       </c>
       <c r="O46" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P46" s="3">
         <f>K46*0.2 + L46*0.4 + M46*0.1 + N46*0.1 + 1*0.2</f>
         <v>0.90000000000000013</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>322</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
@@ -4707,39 +4701,39 @@
         <v>0.4</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="D48" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F48" s="16" t="s">
+      <c r="H48" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="I48" s="4">
         <v>2018</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="4">
@@ -4753,42 +4747,42 @@
         <v>0.4</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="E49" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="G49" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>335</v>
-      </c>
       <c r="H49" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="4">
         <v>2023</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L49" s="4">
         <v>1</v>
@@ -4798,46 +4792,46 @@
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P49" s="3">
         <f>K49*0.2 + L49*0.4 + M49*0.1 + N49*0.1 + 5 *0.2</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="F50" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>342</v>
-      </c>
       <c r="H50" s="16" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="I50" s="4">
         <v>2017</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="4">
@@ -4850,46 +4844,46 @@
         <v>1</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P50" s="3">
         <f t="shared" ref="P50:P51" si="6">K50*0.2 + L50*0.4 + M50*0.1 + N50*0.1 + 11*0.2</f>
         <v>2.9000000000000004</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="D51" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="E51" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="D51" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>341</v>
-      </c>
       <c r="F51" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="I51" s="42">
         <v>2023</v>
       </c>
       <c r="J51" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51" s="57"/>
       <c r="L51" s="42">
@@ -4902,47 +4896,47 @@
         <v>1</v>
       </c>
       <c r="O51" s="58" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P51" s="44">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q51" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>352</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L52" s="62"/>
       <c r="M52" s="62"/>
@@ -4953,37 +4947,37 @@
         <v>0.2</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="F53" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>358</v>
-      </c>
       <c r="G53" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53" s="64"/>
       <c r="L53" s="62"/>
@@ -4997,42 +4991,42 @@
         <v>0</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>366</v>
-      </c>
       <c r="H54" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L54" s="4">
         <v>1</v>
@@ -5051,39 +5045,39 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>371</v>
-      </c>
       <c r="G55" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" s="4">
         <v>2020</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="4">
@@ -5103,51 +5097,51 @@
         <v>0.8</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>376</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="62"/>
       <c r="M56" s="62"/>
       <c r="N56" s="63"/>
       <c r="O56" s="34" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P56" s="3">
         <f>K56*0.2 + L56*0.4 + M56*0.1 + N56*0.1 + 22*0.2</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,7 +5184,7 @@
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="75" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B59" s="76"/>
       <c r="C59" s="16"/>
@@ -5212,7 +5206,7 @@
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="70"/>
       <c r="B60" s="71" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -5233,7 +5227,7 @@
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="72"/>
       <c r="B61" s="71" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -5254,7 +5248,7 @@
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="73"/>
       <c r="B62" s="74" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -22771,57 +22765,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -22848,104 +22842,104 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22957,7 +22951,7 @@
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23968,27 +23962,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25005,52 +24999,52 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26071,7 +26065,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26079,7 +26073,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26087,7 +26081,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27109,7 +27103,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27117,15 +27111,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28145,15 +28139,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="14">
         <v>0.3</v>
@@ -28161,7 +28155,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="9">
         <v>0.2</v>
@@ -28169,7 +28163,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9">
         <v>0.2</v>
@@ -28177,7 +28171,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="14">
         <v>0.15</v>
@@ -28185,7 +28179,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="14">
         <v>0.15</v>
